--- a/artfynd/A 30234-2023.xlsx
+++ b/artfynd/A 30234-2023.xlsx
@@ -2269,10 +2269,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111379229</v>
+        <v>111380345</v>
       </c>
       <c r="B14" t="n">
-        <v>95538</v>
+        <v>77267</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2281,39 +2281,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221941</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2321,10 +2312,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>364945.755472637</v>
+        <v>364908.1256513004</v>
       </c>
       <c r="R14" t="n">
-        <v>6872251.713583581</v>
+        <v>6872135.474104149</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2371,7 +2362,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Plattlummer växer i k-skog</t>
+          <t>Växer på gammal kolad tallstubbe i kontinuitetsskog</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2391,7 +2382,22 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Barrblandskog med gamla tallar och senvuxna granar. Kontinuitetsskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2409,10 +2415,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111380345</v>
+        <v>111379229</v>
       </c>
       <c r="B15" t="n">
-        <v>77267</v>
+        <v>95538</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2421,30 +2427,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6446</v>
+        <v>221941</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2452,10 +2467,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>364908.1256513004</v>
+        <v>364945.755472637</v>
       </c>
       <c r="R15" t="n">
-        <v>6872135.474104149</v>
+        <v>6872251.713583581</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2502,7 +2517,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Växer på gammal kolad tallstubbe i kontinuitetsskog</t>
+          <t>Plattlummer växer i k-skog</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2522,22 +2537,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Barrblandskog med gamla tallar och senvuxna granar. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>

--- a/artfynd/A 30234-2023.xlsx
+++ b/artfynd/A 30234-2023.xlsx
@@ -2269,10 +2269,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111380345</v>
+        <v>111379142</v>
       </c>
       <c r="B14" t="n">
-        <v>77267</v>
+        <v>95538</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2281,30 +2281,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6446</v>
+        <v>221941</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2312,10 +2321,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>364908.1256513004</v>
+        <v>364964.1744805645</v>
       </c>
       <c r="R14" t="n">
-        <v>6872135.474104149</v>
+        <v>6872204.831332479</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2347,7 +2356,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2357,12 +2366,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Växer på gammal kolad tallstubbe i kontinuitetsskog</t>
+          <t>Plattlummer växer runt gammal tall i k-skog</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2382,22 +2391,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Barrblandskog med gamla tallar och senvuxna granar. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2415,10 +2409,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111379229</v>
+        <v>111380345</v>
       </c>
       <c r="B15" t="n">
-        <v>95538</v>
+        <v>77267</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2427,39 +2421,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221941</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2467,10 +2452,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>364945.755472637</v>
+        <v>364908.1256513004</v>
       </c>
       <c r="R15" t="n">
-        <v>6872251.713583581</v>
+        <v>6872135.474104149</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2517,7 +2502,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Plattlummer växer i k-skog</t>
+          <t>Växer på gammal kolad tallstubbe i kontinuitetsskog</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2537,7 +2522,22 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Barrblandskog med gamla tallar och senvuxna granar. Kontinuitetsskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111379142</v>
+        <v>111379229</v>
       </c>
       <c r="B16" t="n">
         <v>95538</v>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>364964.1744805645</v>
+        <v>364945.755472637</v>
       </c>
       <c r="R16" t="n">
-        <v>6872204.831332479</v>
+        <v>6872251.713583581</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2652,12 +2652,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Plattlummer växer runt gammal tall i k-skog</t>
+          <t>Plattlummer växer i k-skog</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 30234-2023.xlsx
+++ b/artfynd/A 30234-2023.xlsx
@@ -2269,10 +2269,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111379142</v>
+        <v>111380345</v>
       </c>
       <c r="B14" t="n">
-        <v>95538</v>
+        <v>77267</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2281,39 +2281,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221941</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2321,10 +2312,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>364964.1744805645</v>
+        <v>364908.1256513004</v>
       </c>
       <c r="R14" t="n">
-        <v>6872204.831332479</v>
+        <v>6872135.474104149</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2356,7 +2347,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2366,12 +2357,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Plattlummer växer runt gammal tall i k-skog</t>
+          <t>Växer på gammal kolad tallstubbe i kontinuitetsskog</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2391,7 +2382,22 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Barrblandskog med gamla tallar och senvuxna granar. Kontinuitetsskog</t>
+          <t>Tallskog. Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2409,10 +2415,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111380345</v>
+        <v>111379229</v>
       </c>
       <c r="B15" t="n">
-        <v>77267</v>
+        <v>95538</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2421,30 +2427,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6446</v>
+        <v>221941</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2452,10 +2467,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>364908.1256513004</v>
+        <v>364945.755472637</v>
       </c>
       <c r="R15" t="n">
-        <v>6872135.474104149</v>
+        <v>6872251.713583581</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2502,7 +2517,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Växer på gammal kolad tallstubbe i kontinuitetsskog</t>
+          <t>Plattlummer växer i k-skog</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2522,22 +2537,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Barrblandskog med gamla tallar och senvuxna granar. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111379229</v>
+        <v>111379142</v>
       </c>
       <c r="B16" t="n">
         <v>95538</v>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>364945.755472637</v>
+        <v>364964.1744805645</v>
       </c>
       <c r="R16" t="n">
-        <v>6872251.713583581</v>
+        <v>6872204.831332479</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2652,12 +2652,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Plattlummer växer i k-skog</t>
+          <t>Plattlummer växer runt gammal tall i k-skog</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 30234-2023.xlsx
+++ b/artfynd/A 30234-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY17"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2823,6 +2823,611 @@
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112181755</v>
+      </c>
+      <c r="B18" t="n">
+        <v>78579</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>364894.3754826509</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6872299.904270066</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112182654</v>
+      </c>
+      <c r="B19" t="n">
+        <v>76918</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6437</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Calicium denigratum</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>364914.1726876026</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6872133.350211774</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112182890</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96265</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>219790</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Dactylorhiza maculata</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>364947.03503229</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6872307.702530573</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112182349</v>
+      </c>
+      <c r="B21" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>364898.4777887367</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6872201.317631777</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112182494</v>
+      </c>
+      <c r="B22" t="n">
+        <v>77267</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>364938.076161085</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6872236.477867194</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 30234-2023.xlsx
+++ b/artfynd/A 30234-2023.xlsx
@@ -2742,10 +2742,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>364846.898543097</v>
+        <v>364847</v>
       </c>
       <c r="R17" t="n">
-        <v>6872339.463644189</v>
+        <v>6872339</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112181755</v>
+        <v>112182890</v>
       </c>
       <c r="B18" t="n">
-        <v>78579</v>
+        <v>96265</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2837,25 +2837,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2081</v>
+        <v>219790</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>364894.3754826509</v>
+        <v>364947</v>
       </c>
       <c r="R18" t="n">
-        <v>6872299.904270066</v>
+        <v>6872308</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2902,19 +2902,9 @@
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -2946,10 +2936,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112182654</v>
+        <v>112181755</v>
       </c>
       <c r="B19" t="n">
-        <v>76918</v>
+        <v>78579</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2962,21 +2952,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6437</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2990,10 +2980,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>364914.1726876026</v>
+        <v>364894</v>
       </c>
       <c r="R19" t="n">
-        <v>6872133.350211774</v>
+        <v>6872300</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3023,19 +3013,9 @@
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3067,10 +3047,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112182890</v>
+        <v>112182654</v>
       </c>
       <c r="B20" t="n">
-        <v>96265</v>
+        <v>76918</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3079,25 +3059,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>219790</v>
+        <v>6437</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3111,10 +3091,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>364947.03503229</v>
+        <v>364914</v>
       </c>
       <c r="R20" t="n">
-        <v>6872307.702530573</v>
+        <v>6872133</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3144,19 +3124,9 @@
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3232,10 +3202,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>364898.4777887367</v>
+        <v>364898</v>
       </c>
       <c r="R21" t="n">
-        <v>6872201.317631777</v>
+        <v>6872201</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3265,19 +3235,9 @@
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -3353,10 +3313,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>364938.076161085</v>
+        <v>364938</v>
       </c>
       <c r="R22" t="n">
-        <v>6872236.477867194</v>
+        <v>6872236</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3386,19 +3346,9 @@
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">

--- a/artfynd/A 30234-2023.xlsx
+++ b/artfynd/A 30234-2023.xlsx
@@ -2825,10 +2825,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112182890</v>
+        <v>112182349</v>
       </c>
       <c r="B18" t="n">
-        <v>96265</v>
+        <v>77636</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2837,25 +2837,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>364947</v>
+        <v>364898</v>
       </c>
       <c r="R18" t="n">
-        <v>6872308</v>
+        <v>6872201</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2936,10 +2936,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112181755</v>
+        <v>112182494</v>
       </c>
       <c r="B19" t="n">
-        <v>78579</v>
+        <v>77388</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2952,21 +2952,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>6446</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>364894</v>
+        <v>364938</v>
       </c>
       <c r="R19" t="n">
-        <v>6872300</v>
+        <v>6872236</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3047,10 +3047,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112182654</v>
+        <v>112181755</v>
       </c>
       <c r="B20" t="n">
-        <v>76918</v>
+        <v>78700</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3063,21 +3063,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6437</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>364914</v>
+        <v>364894</v>
       </c>
       <c r="R20" t="n">
-        <v>6872133</v>
+        <v>6872300</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112182349</v>
+        <v>112182654</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>77039</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3174,21 +3174,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>364898</v>
+        <v>364914</v>
       </c>
       <c r="R21" t="n">
-        <v>6872201</v>
+        <v>6872133</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112182494</v>
+        <v>112182890</v>
       </c>
       <c r="B22" t="n">
-        <v>77267</v>
+        <v>96637</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3281,25 +3281,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6446</v>
+        <v>219790</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>364938</v>
+        <v>364947</v>
       </c>
       <c r="R22" t="n">
-        <v>6872236</v>
+        <v>6872308</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>

--- a/artfynd/A 30234-2023.xlsx
+++ b/artfynd/A 30234-2023.xlsx
@@ -2825,10 +2825,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112182349</v>
+        <v>112182654</v>
       </c>
       <c r="B18" t="n">
-        <v>77636</v>
+        <v>77053</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2841,21 +2841,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>364898</v>
+        <v>364914</v>
       </c>
       <c r="R18" t="n">
-        <v>6872201</v>
+        <v>6872133</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2936,10 +2936,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112182494</v>
+        <v>112182890</v>
       </c>
       <c r="B19" t="n">
-        <v>77388</v>
+        <v>96652</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2948,25 +2948,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6446</v>
+        <v>219790</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>364938</v>
+        <v>364947</v>
       </c>
       <c r="R19" t="n">
-        <v>6872236</v>
+        <v>6872308</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3050,7 +3050,7 @@
         <v>112181755</v>
       </c>
       <c r="B20" t="n">
-        <v>78700</v>
+        <v>78714</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112182654</v>
+        <v>112182494</v>
       </c>
       <c r="B21" t="n">
-        <v>77039</v>
+        <v>77402</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3174,21 +3174,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6437</v>
+        <v>6446</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>364914</v>
+        <v>364938</v>
       </c>
       <c r="R21" t="n">
-        <v>6872133</v>
+        <v>6872236</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112182890</v>
+        <v>112182349</v>
       </c>
       <c r="B22" t="n">
-        <v>96637</v>
+        <v>77650</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3281,25 +3281,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>364947</v>
+        <v>364898</v>
       </c>
       <c r="R22" t="n">
-        <v>6872308</v>
+        <v>6872201</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>

--- a/artfynd/A 30234-2023.xlsx
+++ b/artfynd/A 30234-2023.xlsx
@@ -2825,10 +2825,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112182654</v>
+        <v>112182349</v>
       </c>
       <c r="B18" t="n">
-        <v>77053</v>
+        <v>77650</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2841,21 +2841,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>364914</v>
+        <v>364898</v>
       </c>
       <c r="R18" t="n">
-        <v>6872133</v>
+        <v>6872201</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -3047,10 +3047,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112181755</v>
+        <v>112182494</v>
       </c>
       <c r="B20" t="n">
-        <v>78714</v>
+        <v>77402</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3063,21 +3063,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>6446</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>364894</v>
+        <v>364938</v>
       </c>
       <c r="R20" t="n">
-        <v>6872300</v>
+        <v>6872236</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112182494</v>
+        <v>112181755</v>
       </c>
       <c r="B21" t="n">
-        <v>77402</v>
+        <v>78714</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3174,21 +3174,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6446</v>
+        <v>2081</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>364938</v>
+        <v>364894</v>
       </c>
       <c r="R21" t="n">
-        <v>6872236</v>
+        <v>6872300</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112182349</v>
+        <v>112182654</v>
       </c>
       <c r="B22" t="n">
-        <v>77650</v>
+        <v>77053</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3285,21 +3285,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>364898</v>
+        <v>364914</v>
       </c>
       <c r="R22" t="n">
-        <v>6872201</v>
+        <v>6872133</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
